--- a/8002/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
+++ b/8002/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\u2204-001\home\alex\consultant1@CCL\dev\conway_fork\conway.scenarios\8002\EXPECTED@latest\Operator Reports\DevOps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7239E6B-578A-4F1A-B282-9E348FBEE24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
     <sheet name="scenario_8002.test (Local)" sheetId="10" r:id="rId10"/>
     <sheet name="scenario_8002.test (Remote)" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -113,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +201,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -273,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -307,9 +322,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,27 +498,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
+    <col min="8" max="8" width="30.73046875" customWidth="1"/>
+    <col min="9" max="9" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -560,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -589,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -600,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -618,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -647,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -676,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -705,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -734,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -763,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -792,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -827,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -837,18 +853,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -871,7 +887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -900,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -910,18 +926,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -944,7 +960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -973,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -983,18 +999,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1046,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1056,18 +1072,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1119,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1129,18 +1145,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1192,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1202,18 +1218,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1265,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1275,18 +1291,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1338,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1348,18 +1364,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1411,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1421,18 +1437,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1484,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1494,18 +1510,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" customWidth="1"/>
+    <col min="3" max="3" width="35.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="65.73046875" customWidth="1"/>
+    <col min="6" max="6" width="45.73046875" customWidth="1"/>
+    <col min="7" max="7" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>

--- a/8002/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
+++ b/8002/EXPECTED@latest/Operator Reports/DevOps/Repo Stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\u2204-001\home\alex\consultant1@CCL\dev\conway_fork\conway.scenarios\8002\EXPECTED@latest\Operator Reports\DevOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\u2204-001\home\alex\consultant1@CCL\dev\scratch_fork\scratch.scenarios\8002\EXPECTED@latest\Operator Reports\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7239E6B-578A-4F1A-B282-9E348FBEE24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF1F6C3-C463-4F01-B621-5C3E5B92B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
